--- a/import_device_abilityH3C.xlsx
+++ b/import_device_abilityH3C.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3FD923-3ADE-2A4A-A9CE-CEDC443BD247}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,10 +557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QSFP28-100G-SR4,QSFP28-100G-PSM4,QSFP-100G-CWDM4,QSFP28-100G-LR4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SFP-10G-LR,SFP-10G-ZR,SFP-10G-SR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -569,13 +566,17 @@
   </si>
   <si>
     <t>SFP-25G-SR,SFP-25G-CU,SFP-25G-AOC</t>
+  </si>
+  <si>
+    <t>QSFP28-100G-SR4,QSFP28-100G-PSM4,QSFP-100G-CWDM4,QSFP28-100G-LR4,QSFP-100GAOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,25 +923,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E586"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D595" sqref="D595"/>
+    <sheetView tabSelected="1" topLeftCell="A486" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D488" sqref="D488:D527"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="88.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="88.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,7 +958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -971,7 +972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -985,7 +986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" hidden="1">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1">
       <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" hidden="1">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1098,7 +1099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" hidden="1">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" hidden="1">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" hidden="1">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" hidden="1">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" hidden="1">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" hidden="1">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" hidden="1">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1251,7 +1252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1268,7 +1269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" hidden="1">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" hidden="1">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" hidden="1">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -1387,7 +1388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" hidden="1">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1455,7 +1456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" hidden="1">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" hidden="1">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" s="2" t="s">
         <v>14</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" s="2" t="s">
         <v>14</v>
       </c>
@@ -1591,7 +1592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
@@ -1608,7 +1609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" hidden="1">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" hidden="1">
       <c r="A44" s="2" t="s">
         <v>14</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
@@ -1693,7 +1694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" hidden="1">
       <c r="A46" s="2" t="s">
         <v>14</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" hidden="1">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" hidden="1">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" hidden="1">
       <c r="A49" s="2" t="s">
         <v>14</v>
       </c>
@@ -1761,7 +1762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" hidden="1">
       <c r="A50" s="2" t="s">
         <v>14</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" hidden="1">
       <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52" s="2" t="s">
         <v>14</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" hidden="1">
       <c r="A53" s="2" t="s">
         <v>14</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" hidden="1">
       <c r="A54" s="2" t="s">
         <v>14</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" hidden="1">
       <c r="A55" s="2" t="s">
         <v>14</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" hidden="1">
       <c r="A56" s="2" t="s">
         <v>14</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" hidden="1">
       <c r="A57" s="2" t="s">
         <v>14</v>
       </c>
@@ -1897,7 +1898,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" hidden="1">
       <c r="A58" s="2" t="s">
         <v>14</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" s="2" t="s">
         <v>14</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" hidden="1">
       <c r="A60" s="2" t="s">
         <v>77</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61" s="2" t="s">
         <v>77</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" hidden="1">
       <c r="A62" s="2" t="s">
         <v>77</v>
       </c>
@@ -1973,7 +1974,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" hidden="1">
       <c r="A63" s="2" t="s">
         <v>77</v>
       </c>
@@ -1987,7 +1988,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" hidden="1">
       <c r="A64" s="2" t="s">
         <v>77</v>
       </c>
@@ -2001,7 +2002,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" hidden="1">
       <c r="A65" s="2" t="s">
         <v>77</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" hidden="1">
       <c r="A66" s="2" t="s">
         <v>77</v>
       </c>
@@ -2029,7 +2030,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" hidden="1">
       <c r="A67" s="2" t="s">
         <v>77</v>
       </c>
@@ -2043,7 +2044,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" hidden="1">
       <c r="A68" s="2" t="s">
         <v>77</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" hidden="1">
       <c r="A69" s="2" t="s">
         <v>77</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" hidden="1">
       <c r="A70" s="2" t="s">
         <v>77</v>
       </c>
@@ -2085,7 +2086,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" hidden="1">
       <c r="A71" s="2" t="s">
         <v>77</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" hidden="1">
       <c r="A72" s="2" t="s">
         <v>77</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" hidden="1">
       <c r="A73" s="2" t="s">
         <v>77</v>
       </c>
@@ -2127,7 +2128,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" hidden="1">
       <c r="A74" s="2" t="s">
         <v>77</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" hidden="1">
       <c r="A75" s="2" t="s">
         <v>77</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" hidden="1">
       <c r="A76" s="2" t="s">
         <v>77</v>
       </c>
@@ -2169,7 +2170,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" hidden="1">
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
@@ -2183,7 +2184,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
         <v>87</v>
       </c>
@@ -2194,13 +2195,13 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
         <v>87</v>
       </c>
@@ -2211,13 +2212,13 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
         <v>87</v>
       </c>
@@ -2228,13 +2229,13 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
         <v>87</v>
       </c>
@@ -2245,13 +2246,13 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
         <v>87</v>
       </c>
@@ -2262,13 +2263,13 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
         <v>87</v>
       </c>
@@ -2279,13 +2280,13 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
         <v>87</v>
       </c>
@@ -2296,13 +2297,13 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
         <v>87</v>
       </c>
@@ -2313,13 +2314,13 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
         <v>87</v>
       </c>
@@ -2330,13 +2331,13 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
         <v>87</v>
       </c>
@@ -2347,13 +2348,13 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -2364,13 +2365,13 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
@@ -2381,13 +2382,13 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
         <v>87</v>
       </c>
@@ -2398,13 +2399,13 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
         <v>87</v>
       </c>
@@ -2415,13 +2416,13 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
         <v>87</v>
       </c>
@@ -2432,13 +2433,13 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
         <v>87</v>
       </c>
@@ -2449,13 +2450,13 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
         <v>87</v>
       </c>
@@ -2466,13 +2467,13 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
         <v>87</v>
       </c>
@@ -2483,13 +2484,13 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" hidden="1">
       <c r="A96" s="2" t="s">
         <v>87</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" hidden="1">
       <c r="A97" s="2" t="s">
         <v>87</v>
       </c>
@@ -2523,7 +2524,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" hidden="1">
       <c r="A98" s="2" t="s">
         <v>87</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" hidden="1">
       <c r="A99" s="2" t="s">
         <v>87</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" hidden="1">
       <c r="A100" s="2" t="s">
         <v>87</v>
       </c>
@@ -2574,7 +2575,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" hidden="1">
       <c r="A101" s="2" t="s">
         <v>87</v>
       </c>
@@ -2591,7 +2592,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" hidden="1">
       <c r="A102" s="2" t="s">
         <v>87</v>
       </c>
@@ -2608,7 +2609,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" hidden="1">
       <c r="A103" s="2" t="s">
         <v>87</v>
       </c>
@@ -2625,7 +2626,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" hidden="1">
       <c r="A104" s="2" t="s">
         <v>87</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" hidden="1">
       <c r="A105" s="2" t="s">
         <v>87</v>
       </c>
@@ -2659,7 +2660,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" hidden="1">
       <c r="A106" s="2" t="s">
         <v>87</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" hidden="1">
       <c r="A107" s="2" t="s">
         <v>87</v>
       </c>
@@ -2693,7 +2694,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" hidden="1">
       <c r="A108" s="2" t="s">
         <v>87</v>
       </c>
@@ -2710,7 +2711,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" hidden="1">
       <c r="A109" s="2" t="s">
         <v>87</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" hidden="1">
       <c r="A110" s="2" t="s">
         <v>87</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" hidden="1">
       <c r="A111" s="2" t="s">
         <v>87</v>
       </c>
@@ -2761,7 +2762,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" hidden="1">
       <c r="A112" s="2" t="s">
         <v>87</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" hidden="1">
       <c r="A113" s="2" t="s">
         <v>87</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" hidden="1">
       <c r="A114" s="2" t="s">
         <v>126</v>
       </c>
@@ -2809,7 +2810,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" hidden="1">
       <c r="A115" s="2" t="s">
         <v>126</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" hidden="1">
       <c r="A116" s="2" t="s">
         <v>126</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" hidden="1">
       <c r="A117" s="2" t="s">
         <v>126</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" hidden="1">
       <c r="A118" s="2" t="s">
         <v>126</v>
       </c>
@@ -2865,7 +2866,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" hidden="1">
       <c r="A119" s="2" t="s">
         <v>126</v>
       </c>
@@ -2879,7 +2880,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" hidden="1">
       <c r="A120" s="2" t="s">
         <v>126</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" hidden="1">
       <c r="A121" s="2" t="s">
         <v>126</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" hidden="1">
       <c r="A122" s="2" t="s">
         <v>126</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" hidden="1">
       <c r="A123" s="2" t="s">
         <v>126</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" hidden="1">
       <c r="A124" s="2" t="s">
         <v>126</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" hidden="1">
       <c r="A125" s="2" t="s">
         <v>126</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" hidden="1">
       <c r="A126" s="2" t="s">
         <v>126</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" hidden="1">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -2991,7 +2992,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" hidden="1">
       <c r="A128" s="2" t="s">
         <v>126</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" hidden="1">
       <c r="A129" s="2" t="s">
         <v>126</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" hidden="1">
       <c r="A130" s="2" t="s">
         <v>126</v>
       </c>
@@ -3033,7 +3034,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" hidden="1">
       <c r="A131" s="2" t="s">
         <v>126</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" hidden="1">
       <c r="A132" s="2" t="s">
         <v>126</v>
       </c>
@@ -3061,7 +3062,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" hidden="1">
       <c r="A133" s="2" t="s">
         <v>126</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" hidden="1">
       <c r="A134" s="2" t="s">
         <v>126</v>
       </c>
@@ -3089,7 +3090,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" hidden="1">
       <c r="A135" s="2" t="s">
         <v>126</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" hidden="1">
       <c r="A136" s="2" t="s">
         <v>126</v>
       </c>
@@ -3117,7 +3118,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" hidden="1">
       <c r="A137" s="2" t="s">
         <v>126</v>
       </c>
@@ -3131,7 +3132,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" hidden="1">
       <c r="A138" s="2" t="s">
         <v>126</v>
       </c>
@@ -3145,7 +3146,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" hidden="1">
       <c r="A139" s="2" t="s">
         <v>126</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" hidden="1">
       <c r="A140" s="2" t="s">
         <v>126</v>
       </c>
@@ -3173,7 +3174,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" hidden="1">
       <c r="A141" s="2" t="s">
         <v>126</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" hidden="1">
       <c r="A142" s="2" t="s">
         <v>126</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" hidden="1">
       <c r="A143" s="2" t="s">
         <v>126</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" hidden="1">
       <c r="A144" s="2" t="s">
         <v>126</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" hidden="1">
       <c r="A145" s="2" t="s">
         <v>126</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" hidden="1">
       <c r="A146" s="2" t="s">
         <v>126</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" hidden="1">
       <c r="A147" s="2" t="s">
         <v>126</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" hidden="1">
       <c r="A148" s="2" t="s">
         <v>126</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" hidden="1">
       <c r="A149" s="2" t="s">
         <v>126</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" hidden="1">
       <c r="A150" s="2" t="s">
         <v>126</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" hidden="1">
       <c r="A151" s="2" t="s">
         <v>126</v>
       </c>
@@ -3327,7 +3328,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" hidden="1">
       <c r="A152" s="2" t="s">
         <v>126</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" hidden="1">
       <c r="A153" s="2" t="s">
         <v>126</v>
       </c>
@@ -3355,7 +3356,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" hidden="1">
       <c r="A154" s="2" t="s">
         <v>126</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" hidden="1">
       <c r="A155" s="2" t="s">
         <v>126</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5">
       <c r="A156" s="2" t="s">
         <v>87</v>
       </c>
@@ -3394,13 +3395,13 @@
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="A157" s="2" t="s">
         <v>87</v>
       </c>
@@ -3411,13 +3412,13 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158" s="2" t="s">
         <v>87</v>
       </c>
@@ -3428,13 +3429,13 @@
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5">
       <c r="A159" s="2" t="s">
         <v>87</v>
       </c>
@@ -3445,13 +3446,13 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5">
       <c r="A160" s="2" t="s">
         <v>87</v>
       </c>
@@ -3462,13 +3463,13 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161" s="2" t="s">
         <v>87</v>
       </c>
@@ -3479,13 +3480,13 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5">
       <c r="A162" s="2" t="s">
         <v>87</v>
       </c>
@@ -3496,13 +3497,13 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5">
       <c r="A163" s="2" t="s">
         <v>87</v>
       </c>
@@ -3513,13 +3514,13 @@
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5">
       <c r="A164" s="2" t="s">
         <v>87</v>
       </c>
@@ -3530,13 +3531,13 @@
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5">
       <c r="A165" s="2" t="s">
         <v>87</v>
       </c>
@@ -3547,13 +3548,13 @@
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166" s="2" t="s">
         <v>87</v>
       </c>
@@ -3564,13 +3565,13 @@
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167" s="2" t="s">
         <v>87</v>
       </c>
@@ -3581,13 +3582,13 @@
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5">
       <c r="A168" s="2" t="s">
         <v>87</v>
       </c>
@@ -3598,13 +3599,13 @@
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5">
       <c r="A169" s="2" t="s">
         <v>87</v>
       </c>
@@ -3615,13 +3616,13 @@
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5">
       <c r="A170" s="2" t="s">
         <v>87</v>
       </c>
@@ -3632,13 +3633,13 @@
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171" s="2" t="s">
         <v>87</v>
       </c>
@@ -3649,13 +3650,13 @@
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172" s="2" t="s">
         <v>87</v>
       </c>
@@ -3666,13 +3667,13 @@
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5">
       <c r="A173" s="2" t="s">
         <v>87</v>
       </c>
@@ -3683,13 +3684,13 @@
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" hidden="1">
       <c r="A174" s="2" t="s">
         <v>87</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" hidden="1">
       <c r="A175" s="2" t="s">
         <v>87</v>
       </c>
@@ -3723,7 +3724,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" hidden="1">
       <c r="A176" s="2" t="s">
         <v>87</v>
       </c>
@@ -3740,7 +3741,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" hidden="1">
       <c r="A177" s="2" t="s">
         <v>87</v>
       </c>
@@ -3757,7 +3758,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" hidden="1">
       <c r="A178" s="2" t="s">
         <v>87</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" hidden="1">
       <c r="A179" s="2" t="s">
         <v>87</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" hidden="1">
       <c r="A180" s="2" t="s">
         <v>87</v>
       </c>
@@ -3808,7 +3809,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" hidden="1">
       <c r="A181" s="2" t="s">
         <v>87</v>
       </c>
@@ -3825,7 +3826,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" hidden="1">
       <c r="A182" s="2" t="s">
         <v>87</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" hidden="1">
       <c r="A183" s="2" t="s">
         <v>87</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" hidden="1">
       <c r="A184" s="2" t="s">
         <v>87</v>
       </c>
@@ -3876,7 +3877,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" hidden="1">
       <c r="A185" s="2" t="s">
         <v>87</v>
       </c>
@@ -3893,7 +3894,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" hidden="1">
       <c r="A186" s="2" t="s">
         <v>87</v>
       </c>
@@ -3910,7 +3911,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" hidden="1">
       <c r="A187" s="2" t="s">
         <v>87</v>
       </c>
@@ -3927,7 +3928,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" hidden="1">
       <c r="A188" s="2" t="s">
         <v>87</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" hidden="1">
       <c r="A189" s="2" t="s">
         <v>87</v>
       </c>
@@ -3961,7 +3962,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" hidden="1">
       <c r="A190" s="2" t="s">
         <v>87</v>
       </c>
@@ -3978,7 +3979,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" hidden="1">
       <c r="A191" s="2" t="s">
         <v>87</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" hidden="1">
       <c r="A192" s="2" t="s">
         <v>142</v>
       </c>
@@ -4009,7 +4010,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" hidden="1">
       <c r="A193" s="2" t="s">
         <v>142</v>
       </c>
@@ -4023,7 +4024,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" hidden="1">
       <c r="A194" s="2" t="s">
         <v>142</v>
       </c>
@@ -4037,7 +4038,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" hidden="1">
       <c r="A195" s="2" t="s">
         <v>142</v>
       </c>
@@ -4051,7 +4052,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" hidden="1">
       <c r="A196" s="2" t="s">
         <v>142</v>
       </c>
@@ -4065,7 +4066,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" hidden="1">
       <c r="A197" s="2" t="s">
         <v>142</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" hidden="1">
       <c r="A198" s="2" t="s">
         <v>142</v>
       </c>
@@ -4093,7 +4094,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" hidden="1">
       <c r="A199" s="2" t="s">
         <v>142</v>
       </c>
@@ -4107,7 +4108,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" hidden="1">
       <c r="A200" s="2" t="s">
         <v>142</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" hidden="1">
       <c r="A201" s="2" t="s">
         <v>142</v>
       </c>
@@ -4135,7 +4136,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" hidden="1">
       <c r="A202" s="2" t="s">
         <v>142</v>
       </c>
@@ -4149,7 +4150,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" hidden="1">
       <c r="A203" s="2" t="s">
         <v>142</v>
       </c>
@@ -4163,7 +4164,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" hidden="1">
       <c r="A204" s="2" t="s">
         <v>142</v>
       </c>
@@ -4177,7 +4178,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" hidden="1">
       <c r="A205" s="2" t="s">
         <v>142</v>
       </c>
@@ -4191,7 +4192,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" hidden="1">
       <c r="A206" s="2" t="s">
         <v>142</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" hidden="1">
       <c r="A207" s="2" t="s">
         <v>142</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" hidden="1">
       <c r="A208" s="2" t="s">
         <v>142</v>
       </c>
@@ -4233,7 +4234,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" hidden="1">
       <c r="A209" s="2" t="s">
         <v>142</v>
       </c>
@@ -4247,7 +4248,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" hidden="1">
       <c r="A210" s="2" t="s">
         <v>142</v>
       </c>
@@ -4261,7 +4262,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" hidden="1">
       <c r="A211" s="2" t="s">
         <v>142</v>
       </c>
@@ -4275,7 +4276,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" hidden="1">
       <c r="A212" s="2" t="s">
         <v>142</v>
       </c>
@@ -4289,7 +4290,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" hidden="1">
       <c r="A213" s="2" t="s">
         <v>142</v>
       </c>
@@ -4303,7 +4304,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" hidden="1">
       <c r="A214" s="2" t="s">
         <v>142</v>
       </c>
@@ -4317,7 +4318,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" hidden="1">
       <c r="A215" s="2" t="s">
         <v>142</v>
       </c>
@@ -4331,7 +4332,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" hidden="1">
       <c r="A216" s="2" t="s">
         <v>142</v>
       </c>
@@ -4345,7 +4346,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" hidden="1">
       <c r="A217" s="2" t="s">
         <v>142</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" hidden="1">
       <c r="A218" s="2" t="s">
         <v>142</v>
       </c>
@@ -4373,7 +4374,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219" s="2" t="s">
         <v>87</v>
       </c>
@@ -4384,13 +4385,13 @@
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220" s="2" t="s">
         <v>87</v>
       </c>
@@ -4401,13 +4402,13 @@
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221" s="2" t="s">
         <v>87</v>
       </c>
@@ -4418,13 +4419,13 @@
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222" s="2" t="s">
         <v>87</v>
       </c>
@@ -4435,13 +4436,13 @@
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223" s="2" t="s">
         <v>87</v>
       </c>
@@ -4452,13 +4453,13 @@
         <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224" s="2" t="s">
         <v>87</v>
       </c>
@@ -4469,13 +4470,13 @@
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225" s="2" t="s">
         <v>87</v>
       </c>
@@ -4486,13 +4487,13 @@
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226" s="2" t="s">
         <v>87</v>
       </c>
@@ -4503,13 +4504,13 @@
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227" s="2" t="s">
         <v>87</v>
       </c>
@@ -4520,13 +4521,13 @@
         <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228" s="2" t="s">
         <v>87</v>
       </c>
@@ -4537,13 +4538,13 @@
         <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229" s="2" t="s">
         <v>87</v>
       </c>
@@ -4554,13 +4555,13 @@
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230" s="2" t="s">
         <v>87</v>
       </c>
@@ -4571,13 +4572,13 @@
         <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231" s="2" t="s">
         <v>87</v>
       </c>
@@ -4588,13 +4589,13 @@
         <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232" s="2" t="s">
         <v>87</v>
       </c>
@@ -4605,13 +4606,13 @@
         <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233" s="2" t="s">
         <v>87</v>
       </c>
@@ -4622,13 +4623,13 @@
         <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234" s="2" t="s">
         <v>87</v>
       </c>
@@ -4639,13 +4640,13 @@
         <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235" s="2" t="s">
         <v>87</v>
       </c>
@@ -4656,13 +4657,13 @@
         <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236" s="2" t="s">
         <v>87</v>
       </c>
@@ -4673,13 +4674,13 @@
         <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" hidden="1">
       <c r="A237" s="2" t="s">
         <v>87</v>
       </c>
@@ -4696,7 +4697,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" hidden="1">
       <c r="A238" s="2" t="s">
         <v>87</v>
       </c>
@@ -4713,7 +4714,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" hidden="1">
       <c r="A239" s="2" t="s">
         <v>87</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" hidden="1">
       <c r="A240" s="2" t="s">
         <v>87</v>
       </c>
@@ -4747,7 +4748,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" hidden="1">
       <c r="A241" s="2" t="s">
         <v>87</v>
       </c>
@@ -4764,7 +4765,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" hidden="1">
       <c r="A242" s="2" t="s">
         <v>87</v>
       </c>
@@ -4781,7 +4782,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" hidden="1">
       <c r="A243" s="2" t="s">
         <v>87</v>
       </c>
@@ -4798,7 +4799,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" hidden="1">
       <c r="A244" s="2" t="s">
         <v>87</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" hidden="1">
       <c r="A245" s="2" t="s">
         <v>87</v>
       </c>
@@ -4832,7 +4833,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" hidden="1">
       <c r="A246" s="2" t="s">
         <v>87</v>
       </c>
@@ -4849,7 +4850,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" hidden="1">
       <c r="A247" s="2" t="s">
         <v>87</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" hidden="1">
       <c r="A248" s="2" t="s">
         <v>87</v>
       </c>
@@ -4883,7 +4884,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" hidden="1">
       <c r="A249" s="2" t="s">
         <v>87</v>
       </c>
@@ -4900,7 +4901,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" hidden="1">
       <c r="A250" s="2" t="s">
         <v>87</v>
       </c>
@@ -4917,7 +4918,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" hidden="1">
       <c r="A251" s="2" t="s">
         <v>87</v>
       </c>
@@ -4934,7 +4935,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" hidden="1">
       <c r="A252" s="2" t="s">
         <v>87</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" hidden="1">
       <c r="A253" s="2" t="s">
         <v>87</v>
       </c>
@@ -4968,7 +4969,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" hidden="1">
       <c r="A254" s="2" t="s">
         <v>87</v>
       </c>
@@ -4985,7 +4986,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" hidden="1">
       <c r="A255" s="2" t="s">
         <v>145</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" hidden="1">
       <c r="A256" s="2" t="s">
         <v>145</v>
       </c>
@@ -5013,7 +5014,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" hidden="1">
       <c r="A257" s="2" t="s">
         <v>145</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" hidden="1">
       <c r="A258" s="2" t="s">
         <v>145</v>
       </c>
@@ -5041,7 +5042,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" hidden="1">
       <c r="A259" s="2" t="s">
         <v>145</v>
       </c>
@@ -5058,7 +5059,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" hidden="1">
       <c r="A260" s="2" t="s">
         <v>145</v>
       </c>
@@ -5075,7 +5076,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" hidden="1">
       <c r="A261" s="2" t="s">
         <v>145</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" hidden="1">
       <c r="A262" s="2" t="s">
         <v>145</v>
       </c>
@@ -5109,7 +5110,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" hidden="1">
       <c r="A263" s="2" t="s">
         <v>145</v>
       </c>
@@ -5126,7 +5127,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" hidden="1">
       <c r="A264" s="2" t="s">
         <v>145</v>
       </c>
@@ -5143,7 +5144,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" hidden="1">
       <c r="A265" s="2" t="s">
         <v>145</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" hidden="1">
       <c r="A266" s="2" t="s">
         <v>145</v>
       </c>
@@ -5177,7 +5178,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" hidden="1">
       <c r="A267" s="2" t="s">
         <v>145</v>
       </c>
@@ -5194,7 +5195,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" hidden="1">
       <c r="A268" s="2" t="s">
         <v>145</v>
       </c>
@@ -5211,7 +5212,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" hidden="1">
       <c r="A269" s="2" t="s">
         <v>145</v>
       </c>
@@ -5228,7 +5229,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" hidden="1">
       <c r="A270" s="2" t="s">
         <v>145</v>
       </c>
@@ -5245,7 +5246,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" hidden="1">
       <c r="A271" s="2" t="s">
         <v>145</v>
       </c>
@@ -5262,7 +5263,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" hidden="1">
       <c r="A272" s="2" t="s">
         <v>145</v>
       </c>
@@ -5279,7 +5280,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" hidden="1">
       <c r="A273" s="2" t="s">
         <v>145</v>
       </c>
@@ -5296,7 +5297,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" hidden="1">
       <c r="A274" s="2" t="s">
         <v>145</v>
       </c>
@@ -5313,7 +5314,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" hidden="1">
       <c r="A275" s="2" t="s">
         <v>145</v>
       </c>
@@ -5330,7 +5331,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" hidden="1">
       <c r="A276" s="2" t="s">
         <v>145</v>
       </c>
@@ -5347,7 +5348,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" hidden="1">
       <c r="A277" s="2" t="s">
         <v>145</v>
       </c>
@@ -5364,7 +5365,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" hidden="1">
       <c r="A278" s="2" t="s">
         <v>145</v>
       </c>
@@ -5381,7 +5382,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" hidden="1">
       <c r="A279" s="2" t="s">
         <v>145</v>
       </c>
@@ -5398,7 +5399,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" hidden="1">
       <c r="A280" s="2" t="s">
         <v>145</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" hidden="1">
       <c r="A281" s="2" t="s">
         <v>145</v>
       </c>
@@ -5432,7 +5433,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" hidden="1">
       <c r="A282" s="2" t="s">
         <v>145</v>
       </c>
@@ -5449,7 +5450,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" hidden="1">
       <c r="A283" s="2" t="s">
         <v>145</v>
       </c>
@@ -5466,7 +5467,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" hidden="1">
       <c r="A284" s="2" t="s">
         <v>145</v>
       </c>
@@ -5483,7 +5484,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" hidden="1">
       <c r="A285" s="2" t="s">
         <v>145</v>
       </c>
@@ -5500,7 +5501,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" hidden="1">
       <c r="A286" s="2" t="s">
         <v>145</v>
       </c>
@@ -5517,7 +5518,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" hidden="1">
       <c r="A287" s="2" t="s">
         <v>145</v>
       </c>
@@ -5534,7 +5535,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" hidden="1">
       <c r="A288" s="2" t="s">
         <v>145</v>
       </c>
@@ -5551,7 +5552,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" hidden="1">
       <c r="A289" s="2" t="s">
         <v>145</v>
       </c>
@@ -5568,7 +5569,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" hidden="1">
       <c r="A290" s="2" t="s">
         <v>145</v>
       </c>
@@ -5585,7 +5586,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" hidden="1">
       <c r="A291" s="2" t="s">
         <v>148</v>
       </c>
@@ -5599,7 +5600,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" hidden="1">
       <c r="A292" s="2" t="s">
         <v>148</v>
       </c>
@@ -5613,7 +5614,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" hidden="1">
       <c r="A293" s="2" t="s">
         <v>148</v>
       </c>
@@ -5627,7 +5628,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" hidden="1">
       <c r="A294" s="2" t="s">
         <v>148</v>
       </c>
@@ -5641,7 +5642,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" hidden="1">
       <c r="A295" s="2" t="s">
         <v>148</v>
       </c>
@@ -5652,13 +5653,13 @@
         <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" hidden="1">
       <c r="A296" s="2" t="s">
         <v>148</v>
       </c>
@@ -5669,13 +5670,13 @@
         <v>9</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" hidden="1">
       <c r="A297" s="2" t="s">
         <v>148</v>
       </c>
@@ -5686,13 +5687,13 @@
         <v>9</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" hidden="1">
       <c r="A298" s="2" t="s">
         <v>148</v>
       </c>
@@ -5703,13 +5704,13 @@
         <v>9</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" hidden="1">
       <c r="A299" s="2" t="s">
         <v>148</v>
       </c>
@@ -5726,7 +5727,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" hidden="1">
       <c r="A300" s="2" t="s">
         <v>148</v>
       </c>
@@ -5743,7 +5744,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" hidden="1">
       <c r="A301" s="2" t="s">
         <v>148</v>
       </c>
@@ -5754,13 +5755,13 @@
         <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" hidden="1">
       <c r="A302" s="2" t="s">
         <v>148</v>
       </c>
@@ -5771,13 +5772,13 @@
         <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" hidden="1">
       <c r="A303" s="2" t="s">
         <v>148</v>
       </c>
@@ -5788,13 +5789,13 @@
         <v>9</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" hidden="1">
       <c r="A304" s="2" t="s">
         <v>148</v>
       </c>
@@ -5805,13 +5806,13 @@
         <v>9</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" hidden="1">
       <c r="A305" s="2" t="s">
         <v>148</v>
       </c>
@@ -5822,13 +5823,13 @@
         <v>9</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" hidden="1">
       <c r="A306" s="2" t="s">
         <v>148</v>
       </c>
@@ -5839,13 +5840,13 @@
         <v>9</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" hidden="1">
       <c r="A307" s="2" t="s">
         <v>148</v>
       </c>
@@ -5856,13 +5857,13 @@
         <v>9</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" hidden="1">
       <c r="A308" s="2" t="s">
         <v>148</v>
       </c>
@@ -5873,13 +5874,13 @@
         <v>9</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" hidden="1">
       <c r="A309" s="2" t="s">
         <v>148</v>
       </c>
@@ -5890,13 +5891,13 @@
         <v>9</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" hidden="1">
       <c r="A310" s="2" t="s">
         <v>148</v>
       </c>
@@ -5907,13 +5908,13 @@
         <v>9</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" hidden="1">
       <c r="A311" s="2" t="s">
         <v>148</v>
       </c>
@@ -5924,13 +5925,13 @@
         <v>9</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" hidden="1">
       <c r="A312" s="2" t="s">
         <v>148</v>
       </c>
@@ -5941,13 +5942,13 @@
         <v>9</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" hidden="1">
       <c r="A313" s="2" t="s">
         <v>148</v>
       </c>
@@ -5958,13 +5959,13 @@
         <v>9</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" hidden="1">
       <c r="A314" s="2" t="s">
         <v>148</v>
       </c>
@@ -5975,13 +5976,13 @@
         <v>9</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" hidden="1">
       <c r="A315" s="2" t="s">
         <v>148</v>
       </c>
@@ -5992,13 +5993,13 @@
         <v>9</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" hidden="1">
       <c r="A316" s="2" t="s">
         <v>148</v>
       </c>
@@ -6009,13 +6010,13 @@
         <v>9</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" hidden="1">
       <c r="A317" s="2" t="s">
         <v>148</v>
       </c>
@@ -6026,13 +6027,13 @@
         <v>9</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" hidden="1">
       <c r="A318" s="2" t="s">
         <v>148</v>
       </c>
@@ -6043,13 +6044,13 @@
         <v>9</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" hidden="1">
       <c r="A319" s="2" t="s">
         <v>148</v>
       </c>
@@ -6060,13 +6061,13 @@
         <v>9</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" hidden="1">
       <c r="A320" s="2" t="s">
         <v>148</v>
       </c>
@@ -6077,13 +6078,13 @@
         <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" hidden="1">
       <c r="A321" s="2" t="s">
         <v>148</v>
       </c>
@@ -6094,13 +6095,13 @@
         <v>9</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" hidden="1">
       <c r="A322" s="2" t="s">
         <v>148</v>
       </c>
@@ -6111,13 +6112,13 @@
         <v>9</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" hidden="1">
       <c r="A323" s="2" t="s">
         <v>148</v>
       </c>
@@ -6128,13 +6129,13 @@
         <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" hidden="1">
       <c r="A324" s="2" t="s">
         <v>148</v>
       </c>
@@ -6145,13 +6146,13 @@
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" hidden="1">
       <c r="A325" s="2" t="s">
         <v>148</v>
       </c>
@@ -6162,13 +6163,13 @@
         <v>9</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" hidden="1">
       <c r="A326" s="2" t="s">
         <v>148</v>
       </c>
@@ -6179,13 +6180,13 @@
         <v>9</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" hidden="1">
       <c r="A327" s="2" t="s">
         <v>148</v>
       </c>
@@ -6196,13 +6197,13 @@
         <v>9</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" hidden="1">
       <c r="A328" s="2" t="s">
         <v>148</v>
       </c>
@@ -6213,13 +6214,13 @@
         <v>9</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" hidden="1">
       <c r="A329" s="2" t="s">
         <v>148</v>
       </c>
@@ -6230,13 +6231,13 @@
         <v>9</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" hidden="1">
       <c r="A330" s="2" t="s">
         <v>148</v>
       </c>
@@ -6247,13 +6248,13 @@
         <v>9</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" hidden="1">
       <c r="A331" s="2" t="s">
         <v>148</v>
       </c>
@@ -6264,13 +6265,13 @@
         <v>9</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" hidden="1">
       <c r="A332" s="2" t="s">
         <v>148</v>
       </c>
@@ -6281,13 +6282,13 @@
         <v>9</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" hidden="1">
       <c r="A333" s="2" t="s">
         <v>148</v>
       </c>
@@ -6298,13 +6299,13 @@
         <v>9</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" hidden="1">
       <c r="A334" s="2" t="s">
         <v>148</v>
       </c>
@@ -6315,13 +6316,13 @@
         <v>9</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" hidden="1">
       <c r="A335" s="2" t="s">
         <v>148</v>
       </c>
@@ -6332,13 +6333,13 @@
         <v>9</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" hidden="1">
       <c r="A336" s="2" t="s">
         <v>148</v>
       </c>
@@ -6349,13 +6350,13 @@
         <v>9</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" hidden="1">
       <c r="A337" s="2" t="s">
         <v>148</v>
       </c>
@@ -6366,13 +6367,13 @@
         <v>9</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" hidden="1">
       <c r="A338" s="2" t="s">
         <v>148</v>
       </c>
@@ -6383,13 +6384,13 @@
         <v>9</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" hidden="1">
       <c r="A339" s="2" t="s">
         <v>148</v>
       </c>
@@ -6400,13 +6401,13 @@
         <v>9</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" hidden="1">
       <c r="A340" s="2" t="s">
         <v>148</v>
       </c>
@@ -6417,13 +6418,13 @@
         <v>9</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" hidden="1">
       <c r="A341" s="2" t="s">
         <v>148</v>
       </c>
@@ -6434,13 +6435,13 @@
         <v>9</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" hidden="1">
       <c r="A342" s="2" t="s">
         <v>148</v>
       </c>
@@ -6451,13 +6452,13 @@
         <v>9</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" hidden="1">
       <c r="A343" s="2" t="s">
         <v>148</v>
       </c>
@@ -6468,13 +6469,13 @@
         <v>9</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" hidden="1">
       <c r="A344" s="2" t="s">
         <v>148</v>
       </c>
@@ -6485,13 +6486,13 @@
         <v>9</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" hidden="1">
       <c r="A345" s="2" t="s">
         <v>148</v>
       </c>
@@ -6502,13 +6503,13 @@
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" hidden="1">
       <c r="A346" s="2" t="s">
         <v>148</v>
       </c>
@@ -6519,13 +6520,13 @@
         <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" hidden="1">
       <c r="A347" s="2" t="s">
         <v>148</v>
       </c>
@@ -6536,13 +6537,13 @@
         <v>9</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" hidden="1">
       <c r="A348" s="2" t="s">
         <v>148</v>
       </c>
@@ -6553,13 +6554,13 @@
         <v>9</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" hidden="1">
       <c r="A349" s="2" t="s">
         <v>148</v>
       </c>
@@ -6570,13 +6571,13 @@
         <v>9</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" hidden="1">
       <c r="A350" s="2" t="s">
         <v>151</v>
       </c>
@@ -6590,7 +6591,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" hidden="1">
       <c r="A351" s="2" t="s">
         <v>151</v>
       </c>
@@ -6604,7 +6605,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" hidden="1">
       <c r="A352" s="2" t="s">
         <v>151</v>
       </c>
@@ -6618,7 +6619,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" hidden="1">
       <c r="A353" s="2" t="s">
         <v>151</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" hidden="1">
       <c r="A354" s="2" t="s">
         <v>151</v>
       </c>
@@ -6646,7 +6647,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" hidden="1">
       <c r="A355" s="2" t="s">
         <v>151</v>
       </c>
@@ -6660,7 +6661,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" hidden="1">
       <c r="A356" s="2" t="s">
         <v>151</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" hidden="1">
       <c r="A357" s="2" t="s">
         <v>151</v>
       </c>
@@ -6685,13 +6686,13 @@
         <v>9</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" hidden="1">
       <c r="A358" s="2" t="s">
         <v>151</v>
       </c>
@@ -6702,13 +6703,13 @@
         <v>9</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" hidden="1">
       <c r="A359" s="2" t="s">
         <v>151</v>
       </c>
@@ -6719,13 +6720,13 @@
         <v>9</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" hidden="1">
       <c r="A360" s="2" t="s">
         <v>151</v>
       </c>
@@ -6736,13 +6737,13 @@
         <v>9</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" hidden="1">
       <c r="A361" s="2" t="s">
         <v>151</v>
       </c>
@@ -6753,13 +6754,13 @@
         <v>9</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" hidden="1">
       <c r="A362" s="2" t="s">
         <v>151</v>
       </c>
@@ -6770,13 +6771,13 @@
         <v>9</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" hidden="1">
       <c r="A363" s="2" t="s">
         <v>151</v>
       </c>
@@ -6787,13 +6788,13 @@
         <v>9</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" hidden="1">
       <c r="A364" s="2" t="s">
         <v>151</v>
       </c>
@@ -6804,13 +6805,13 @@
         <v>9</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" hidden="1">
       <c r="A365" s="2" t="s">
         <v>151</v>
       </c>
@@ -6821,13 +6822,13 @@
         <v>9</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" hidden="1">
       <c r="A366" s="2" t="s">
         <v>151</v>
       </c>
@@ -6838,13 +6839,13 @@
         <v>9</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" hidden="1">
       <c r="A367" s="2" t="s">
         <v>151</v>
       </c>
@@ -6855,13 +6856,13 @@
         <v>9</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" hidden="1">
       <c r="A368" s="2" t="s">
         <v>151</v>
       </c>
@@ -6872,13 +6873,13 @@
         <v>9</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" hidden="1">
       <c r="A369" s="2" t="s">
         <v>151</v>
       </c>
@@ -6889,13 +6890,13 @@
         <v>9</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" hidden="1">
       <c r="A370" s="2" t="s">
         <v>151</v>
       </c>
@@ -6906,13 +6907,13 @@
         <v>9</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" hidden="1">
       <c r="A371" s="2" t="s">
         <v>151</v>
       </c>
@@ -6923,13 +6924,13 @@
         <v>9</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" hidden="1">
       <c r="A372" s="2" t="s">
         <v>151</v>
       </c>
@@ -6940,13 +6941,13 @@
         <v>9</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" hidden="1">
       <c r="A373" s="2" t="s">
         <v>151</v>
       </c>
@@ -6957,13 +6958,13 @@
         <v>9</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" hidden="1">
       <c r="A374" s="2" t="s">
         <v>151</v>
       </c>
@@ -6974,13 +6975,13 @@
         <v>9</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" hidden="1">
       <c r="A375" s="2" t="s">
         <v>151</v>
       </c>
@@ -6991,13 +6992,13 @@
         <v>9</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" hidden="1">
       <c r="A376" s="2" t="s">
         <v>151</v>
       </c>
@@ -7008,13 +7009,13 @@
         <v>9</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" hidden="1">
       <c r="A377" s="2" t="s">
         <v>151</v>
       </c>
@@ -7025,13 +7026,13 @@
         <v>9</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" hidden="1">
       <c r="A378" s="2" t="s">
         <v>151</v>
       </c>
@@ -7042,13 +7043,13 @@
         <v>9</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" hidden="1">
       <c r="A379" s="2" t="s">
         <v>151</v>
       </c>
@@ -7059,13 +7060,13 @@
         <v>9</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" hidden="1">
       <c r="A380" s="2" t="s">
         <v>151</v>
       </c>
@@ -7076,13 +7077,13 @@
         <v>9</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5">
       <c r="A381" s="2" t="s">
         <v>151</v>
       </c>
@@ -7093,13 +7094,13 @@
         <v>9</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5">
       <c r="A382" s="2" t="s">
         <v>151</v>
       </c>
@@ -7110,13 +7111,13 @@
         <v>9</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5">
       <c r="A383" s="2" t="s">
         <v>151</v>
       </c>
@@ -7127,13 +7128,13 @@
         <v>9</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5">
       <c r="A384" s="2" t="s">
         <v>151</v>
       </c>
@@ -7144,13 +7145,13 @@
         <v>9</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5">
       <c r="A385" s="2" t="s">
         <v>151</v>
       </c>
@@ -7161,13 +7162,13 @@
         <v>9</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5">
       <c r="A386" s="2" t="s">
         <v>151</v>
       </c>
@@ -7178,13 +7179,13 @@
         <v>9</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E386" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5">
       <c r="A387" s="2" t="s">
         <v>151</v>
       </c>
@@ -7195,13 +7196,13 @@
         <v>9</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E387" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5">
       <c r="A388" s="2" t="s">
         <v>151</v>
       </c>
@@ -7212,13 +7213,13 @@
         <v>9</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" hidden="1">
       <c r="A389" s="2" t="s">
         <v>151</v>
       </c>
@@ -7229,13 +7230,13 @@
         <v>9</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" hidden="1">
       <c r="A390" s="2" t="s">
         <v>151</v>
       </c>
@@ -7246,13 +7247,13 @@
         <v>9</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" hidden="1">
       <c r="A391" s="2" t="s">
         <v>151</v>
       </c>
@@ -7263,13 +7264,13 @@
         <v>9</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" hidden="1">
       <c r="A392" s="2" t="s">
         <v>151</v>
       </c>
@@ -7280,13 +7281,13 @@
         <v>9</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" hidden="1">
       <c r="A393" s="2" t="s">
         <v>151</v>
       </c>
@@ -7297,13 +7298,13 @@
         <v>9</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" hidden="1">
       <c r="A394" s="2" t="s">
         <v>151</v>
       </c>
@@ -7314,13 +7315,13 @@
         <v>9</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E394" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" hidden="1">
       <c r="A395" s="2" t="s">
         <v>151</v>
       </c>
@@ -7331,13 +7332,13 @@
         <v>9</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" hidden="1">
       <c r="A396" s="2" t="s">
         <v>151</v>
       </c>
@@ -7348,13 +7349,13 @@
         <v>9</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" hidden="1">
       <c r="A397" s="2" t="s">
         <v>151</v>
       </c>
@@ -7365,13 +7366,13 @@
         <v>9</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" hidden="1">
       <c r="A398" s="2" t="s">
         <v>151</v>
       </c>
@@ -7382,13 +7383,13 @@
         <v>9</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E398" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" hidden="1">
       <c r="A399" s="2" t="s">
         <v>151</v>
       </c>
@@ -7399,13 +7400,13 @@
         <v>9</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E399" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" hidden="1">
       <c r="A400" s="2" t="s">
         <v>151</v>
       </c>
@@ -7416,13 +7417,13 @@
         <v>9</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E400" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" hidden="1">
       <c r="A401" s="2" t="s">
         <v>151</v>
       </c>
@@ -7433,13 +7434,13 @@
         <v>9</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E401" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" hidden="1">
       <c r="A402" s="2" t="s">
         <v>151</v>
       </c>
@@ -7450,13 +7451,13 @@
         <v>9</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E402" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" hidden="1">
       <c r="A403" s="2" t="s">
         <v>151</v>
       </c>
@@ -7467,13 +7468,13 @@
         <v>9</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E403" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" hidden="1">
       <c r="A404" s="2" t="s">
         <v>151</v>
       </c>
@@ -7484,13 +7485,13 @@
         <v>9</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E404" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" hidden="1">
       <c r="A405" s="2" t="s">
         <v>151</v>
       </c>
@@ -7501,13 +7502,13 @@
         <v>9</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E405" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" hidden="1">
       <c r="A406" s="2" t="s">
         <v>151</v>
       </c>
@@ -7518,13 +7519,13 @@
         <v>9</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E406" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" hidden="1">
       <c r="A407" s="2" t="s">
         <v>151</v>
       </c>
@@ -7535,13 +7536,13 @@
         <v>9</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E407" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" hidden="1">
       <c r="A408" s="2" t="s">
         <v>151</v>
       </c>
@@ -7552,13 +7553,13 @@
         <v>9</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E408" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" hidden="1">
       <c r="A409" s="2" t="s">
         <v>151</v>
       </c>
@@ -7569,13 +7570,13 @@
         <v>9</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E409" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" hidden="1">
       <c r="A410" s="2" t="s">
         <v>151</v>
       </c>
@@ -7586,13 +7587,13 @@
         <v>9</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E410" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" hidden="1">
       <c r="A411" s="2" t="s">
         <v>151</v>
       </c>
@@ -7603,13 +7604,13 @@
         <v>9</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E411" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" hidden="1">
       <c r="A412" s="2" t="s">
         <v>151</v>
       </c>
@@ -7620,13 +7621,13 @@
         <v>9</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E412" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" hidden="1">
       <c r="A413" s="2" t="s">
         <v>156</v>
       </c>
@@ -7640,7 +7641,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" hidden="1">
       <c r="A414" s="2" t="s">
         <v>156</v>
       </c>
@@ -7654,7 +7655,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" hidden="1">
       <c r="A415" s="2" t="s">
         <v>156</v>
       </c>
@@ -7668,7 +7669,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" hidden="1">
       <c r="A416" s="2" t="s">
         <v>156</v>
       </c>
@@ -7682,7 +7683,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" hidden="1">
       <c r="A417" s="2" t="s">
         <v>156</v>
       </c>
@@ -7696,7 +7697,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" hidden="1">
       <c r="A418" s="2" t="s">
         <v>156</v>
       </c>
@@ -7710,7 +7711,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" hidden="1">
       <c r="A419" s="2" t="s">
         <v>156</v>
       </c>
@@ -7724,7 +7725,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" hidden="1">
       <c r="A420" s="2" t="s">
         <v>156</v>
       </c>
@@ -7735,13 +7736,13 @@
         <v>9</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E420" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" hidden="1">
       <c r="A421" s="2" t="s">
         <v>156</v>
       </c>
@@ -7752,13 +7753,13 @@
         <v>9</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E421" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" hidden="1">
       <c r="A422" s="2" t="s">
         <v>156</v>
       </c>
@@ -7769,13 +7770,13 @@
         <v>9</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E422" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" hidden="1">
       <c r="A423" s="2" t="s">
         <v>156</v>
       </c>
@@ -7786,13 +7787,13 @@
         <v>9</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" hidden="1">
       <c r="A424" s="2" t="s">
         <v>156</v>
       </c>
@@ -7803,13 +7804,13 @@
         <v>9</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" hidden="1">
       <c r="A425" s="2" t="s">
         <v>156</v>
       </c>
@@ -7820,13 +7821,13 @@
         <v>9</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E425" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" hidden="1">
       <c r="A426" s="2" t="s">
         <v>156</v>
       </c>
@@ -7837,13 +7838,13 @@
         <v>9</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" hidden="1">
       <c r="A427" s="2" t="s">
         <v>156</v>
       </c>
@@ -7854,13 +7855,13 @@
         <v>9</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" hidden="1">
       <c r="A428" s="2" t="s">
         <v>156</v>
       </c>
@@ -7871,13 +7872,13 @@
         <v>9</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E428" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" hidden="1">
       <c r="A429" s="2" t="s">
         <v>156</v>
       </c>
@@ -7888,13 +7889,13 @@
         <v>9</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E429" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" hidden="1">
       <c r="A430" s="2" t="s">
         <v>156</v>
       </c>
@@ -7905,13 +7906,13 @@
         <v>9</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E430" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" hidden="1">
       <c r="A431" s="2" t="s">
         <v>156</v>
       </c>
@@ -7922,13 +7923,13 @@
         <v>9</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" hidden="1">
       <c r="A432" s="2" t="s">
         <v>156</v>
       </c>
@@ -7939,13 +7940,13 @@
         <v>9</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" hidden="1">
       <c r="A433" s="2" t="s">
         <v>156</v>
       </c>
@@ -7956,13 +7957,13 @@
         <v>9</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" hidden="1">
       <c r="A434" s="2" t="s">
         <v>156</v>
       </c>
@@ -7973,13 +7974,13 @@
         <v>9</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" hidden="1">
       <c r="A435" s="2" t="s">
         <v>156</v>
       </c>
@@ -7990,13 +7991,13 @@
         <v>9</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" hidden="1">
       <c r="A436" s="2" t="s">
         <v>156</v>
       </c>
@@ -8007,13 +8008,13 @@
         <v>9</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" hidden="1">
       <c r="A437" s="2" t="s">
         <v>156</v>
       </c>
@@ -8024,13 +8025,13 @@
         <v>9</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" hidden="1">
       <c r="A438" s="2" t="s">
         <v>156</v>
       </c>
@@ -8041,13 +8042,13 @@
         <v>9</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" hidden="1">
       <c r="A439" s="2" t="s">
         <v>156</v>
       </c>
@@ -8058,13 +8059,13 @@
         <v>9</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E439" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" hidden="1">
       <c r="A440" s="2" t="s">
         <v>156</v>
       </c>
@@ -8075,13 +8076,13 @@
         <v>9</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" hidden="1">
       <c r="A441" s="2" t="s">
         <v>156</v>
       </c>
@@ -8092,13 +8093,13 @@
         <v>9</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E441" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" hidden="1">
       <c r="A442" s="2" t="s">
         <v>156</v>
       </c>
@@ -8109,13 +8110,13 @@
         <v>9</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" hidden="1">
       <c r="A443" s="2" t="s">
         <v>156</v>
       </c>
@@ -8126,13 +8127,13 @@
         <v>9</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5">
       <c r="A444" s="2" t="s">
         <v>156</v>
       </c>
@@ -8143,13 +8144,13 @@
         <v>9</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5">
       <c r="A445" s="2" t="s">
         <v>156</v>
       </c>
@@ -8160,13 +8161,13 @@
         <v>9</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5">
       <c r="A446" s="2" t="s">
         <v>156</v>
       </c>
@@ -8177,13 +8178,13 @@
         <v>9</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E446" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5">
       <c r="A447" s="2" t="s">
         <v>156</v>
       </c>
@@ -8194,13 +8195,13 @@
         <v>9</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E447" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5">
       <c r="A448" s="2" t="s">
         <v>156</v>
       </c>
@@ -8211,13 +8212,13 @@
         <v>9</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5">
       <c r="A449" s="2" t="s">
         <v>156</v>
       </c>
@@ -8228,13 +8229,13 @@
         <v>9</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5">
       <c r="A450" s="2" t="s">
         <v>156</v>
       </c>
@@ -8245,13 +8246,13 @@
         <v>9</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5">
       <c r="A451" s="2" t="s">
         <v>156</v>
       </c>
@@ -8262,13 +8263,13 @@
         <v>9</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" hidden="1">
       <c r="A452" s="2" t="s">
         <v>156</v>
       </c>
@@ -8279,13 +8280,13 @@
         <v>9</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E452" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" hidden="1">
       <c r="A453" s="2" t="s">
         <v>156</v>
       </c>
@@ -8296,13 +8297,13 @@
         <v>9</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E453" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" hidden="1">
       <c r="A454" s="2" t="s">
         <v>156</v>
       </c>
@@ -8313,13 +8314,13 @@
         <v>9</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E454" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" hidden="1">
       <c r="A455" s="2" t="s">
         <v>156</v>
       </c>
@@ -8330,13 +8331,13 @@
         <v>9</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E455" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" hidden="1">
       <c r="A456" s="2" t="s">
         <v>156</v>
       </c>
@@ -8347,13 +8348,13 @@
         <v>9</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E456" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" hidden="1">
       <c r="A457" s="2" t="s">
         <v>156</v>
       </c>
@@ -8364,13 +8365,13 @@
         <v>9</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E457" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" hidden="1">
       <c r="A458" s="2" t="s">
         <v>156</v>
       </c>
@@ -8381,13 +8382,13 @@
         <v>9</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E458" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" hidden="1">
       <c r="A459" s="2" t="s">
         <v>156</v>
       </c>
@@ -8398,13 +8399,13 @@
         <v>9</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E459" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" hidden="1">
       <c r="A460" s="2" t="s">
         <v>156</v>
       </c>
@@ -8415,13 +8416,13 @@
         <v>9</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" hidden="1">
       <c r="A461" s="2" t="s">
         <v>156</v>
       </c>
@@ -8432,13 +8433,13 @@
         <v>9</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" hidden="1">
       <c r="A462" s="2" t="s">
         <v>156</v>
       </c>
@@ -8449,13 +8450,13 @@
         <v>9</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" hidden="1">
       <c r="A463" s="2" t="s">
         <v>156</v>
       </c>
@@ -8466,13 +8467,13 @@
         <v>9</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E463" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" hidden="1">
       <c r="A464" s="2" t="s">
         <v>156</v>
       </c>
@@ -8483,13 +8484,13 @@
         <v>9</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E464" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" hidden="1">
       <c r="A465" s="2" t="s">
         <v>156</v>
       </c>
@@ -8500,13 +8501,13 @@
         <v>9</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E465" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" hidden="1">
       <c r="A466" s="2" t="s">
         <v>156</v>
       </c>
@@ -8517,13 +8518,13 @@
         <v>9</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" hidden="1">
       <c r="A467" s="2" t="s">
         <v>156</v>
       </c>
@@ -8534,13 +8535,13 @@
         <v>9</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" hidden="1">
       <c r="A468" s="2" t="s">
         <v>156</v>
       </c>
@@ -8551,13 +8552,13 @@
         <v>9</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" hidden="1">
       <c r="A469" s="2" t="s">
         <v>156</v>
       </c>
@@ -8568,13 +8569,13 @@
         <v>9</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" hidden="1">
       <c r="A470" s="2" t="s">
         <v>156</v>
       </c>
@@ -8585,13 +8586,13 @@
         <v>9</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E470" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" hidden="1">
       <c r="A471" s="2" t="s">
         <v>156</v>
       </c>
@@ -8602,13 +8603,13 @@
         <v>9</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E471" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" hidden="1">
       <c r="A472" s="2" t="s">
         <v>156</v>
       </c>
@@ -8619,13 +8620,13 @@
         <v>9</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E472" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" hidden="1">
       <c r="A473" s="2" t="s">
         <v>156</v>
       </c>
@@ -8636,13 +8637,13 @@
         <v>9</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" hidden="1">
       <c r="A474" s="2" t="s">
         <v>156</v>
       </c>
@@ -8653,13 +8654,13 @@
         <v>9</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E474" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" hidden="1">
       <c r="A475" s="2" t="s">
         <v>156</v>
       </c>
@@ -8670,13 +8671,13 @@
         <v>9</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E475" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" hidden="1">
       <c r="A476" s="2" t="s">
         <v>157</v>
       </c>
@@ -8690,7 +8691,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" hidden="1">
       <c r="A477" s="2" t="s">
         <v>157</v>
       </c>
@@ -8704,7 +8705,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" hidden="1">
       <c r="A478" s="2" t="s">
         <v>157</v>
       </c>
@@ -8718,7 +8719,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" hidden="1">
       <c r="A479" s="2" t="s">
         <v>157</v>
       </c>
@@ -8732,7 +8733,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" hidden="1">
       <c r="A480" s="2" t="s">
         <v>157</v>
       </c>
@@ -8746,7 +8747,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" hidden="1">
       <c r="A481" s="2" t="s">
         <v>157</v>
       </c>
@@ -8760,7 +8761,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" hidden="1">
       <c r="A482" s="2" t="s">
         <v>157</v>
       </c>
@@ -8774,7 +8775,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" hidden="1">
       <c r="A483" s="2" t="s">
         <v>157</v>
       </c>
@@ -8788,7 +8789,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" hidden="1">
       <c r="A484" s="2" t="s">
         <v>157</v>
       </c>
@@ -8802,7 +8803,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" hidden="1">
       <c r="A485" s="2" t="s">
         <v>157</v>
       </c>
@@ -8816,7 +8817,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5">
       <c r="A486" s="2" t="s">
         <v>165</v>
       </c>
@@ -8827,13 +8828,13 @@
         <v>9</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E486" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5">
       <c r="A487" s="2" t="s">
         <v>165</v>
       </c>
@@ -8844,13 +8845,13 @@
         <v>9</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E487" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5">
       <c r="A488" s="2" t="s">
         <v>165</v>
       </c>
@@ -8861,13 +8862,13 @@
         <v>9</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E488" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5">
       <c r="A489" s="2" t="s">
         <v>165</v>
       </c>
@@ -8878,13 +8879,13 @@
         <v>9</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E489" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5">
       <c r="A490" s="2" t="s">
         <v>165</v>
       </c>
@@ -8895,13 +8896,13 @@
         <v>9</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E490" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5">
       <c r="A491" s="2" t="s">
         <v>165</v>
       </c>
@@ -8912,13 +8913,13 @@
         <v>9</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E491" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5">
       <c r="A492" s="2" t="s">
         <v>165</v>
       </c>
@@ -8929,13 +8930,13 @@
         <v>9</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E492" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5">
       <c r="A493" s="2" t="s">
         <v>165</v>
       </c>
@@ -8946,13 +8947,13 @@
         <v>9</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E493" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" hidden="1">
       <c r="A494" s="2" t="s">
         <v>166</v>
       </c>
@@ -8969,7 +8970,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" hidden="1">
       <c r="A495" s="2" t="s">
         <v>166</v>
       </c>
@@ -8986,7 +8987,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" hidden="1">
       <c r="A496" s="2" t="s">
         <v>166</v>
       </c>
@@ -9003,7 +9004,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" hidden="1">
       <c r="A497" s="2" t="s">
         <v>166</v>
       </c>
@@ -9020,7 +9021,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" hidden="1">
       <c r="A498" s="2" t="s">
         <v>166</v>
       </c>
@@ -9037,7 +9038,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" hidden="1">
       <c r="A499" s="2" t="s">
         <v>166</v>
       </c>
@@ -9054,7 +9055,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" hidden="1">
       <c r="A500" s="2" t="s">
         <v>166</v>
       </c>
@@ -9071,7 +9072,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" hidden="1">
       <c r="A501" s="2" t="s">
         <v>166</v>
       </c>
@@ -9088,7 +9089,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" hidden="1">
       <c r="A502" s="2" t="s">
         <v>166</v>
       </c>
@@ -9105,7 +9106,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" hidden="1">
       <c r="A503" s="2" t="s">
         <v>166</v>
       </c>
@@ -9122,7 +9123,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" hidden="1">
       <c r="A504" s="2" t="s">
         <v>166</v>
       </c>
@@ -9139,7 +9140,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" hidden="1">
       <c r="A505" s="2" t="s">
         <v>166</v>
       </c>
@@ -9156,7 +9157,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" hidden="1">
       <c r="A506" s="2" t="s">
         <v>166</v>
       </c>
@@ -9173,7 +9174,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" hidden="1">
       <c r="A507" s="2" t="s">
         <v>166</v>
       </c>
@@ -9190,7 +9191,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" hidden="1">
       <c r="A508" s="2" t="s">
         <v>166</v>
       </c>
@@ -9207,7 +9208,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" hidden="1">
       <c r="A509" s="2" t="s">
         <v>166</v>
       </c>
@@ -9224,7 +9225,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" hidden="1">
       <c r="A510" s="2" t="s">
         <v>167</v>
       </c>
@@ -9238,7 +9239,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" hidden="1">
       <c r="A511" s="2" t="s">
         <v>167</v>
       </c>
@@ -9252,7 +9253,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" hidden="1">
       <c r="A512" s="2" t="s">
         <v>167</v>
       </c>
@@ -9266,7 +9267,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" hidden="1">
       <c r="A513" s="2" t="s">
         <v>167</v>
       </c>
@@ -9280,7 +9281,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" hidden="1">
       <c r="A514" s="2" t="s">
         <v>167</v>
       </c>
@@ -9294,7 +9295,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5" hidden="1">
       <c r="A515" s="2" t="s">
         <v>167</v>
       </c>
@@ -9308,7 +9309,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5" hidden="1">
       <c r="A516" s="2" t="s">
         <v>167</v>
       </c>
@@ -9322,7 +9323,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5" hidden="1">
       <c r="A517" s="2" t="s">
         <v>167</v>
       </c>
@@ -9336,7 +9337,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5" hidden="1">
       <c r="A518" s="2" t="s">
         <v>167</v>
       </c>
@@ -9350,7 +9351,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5" hidden="1">
       <c r="A519" s="2" t="s">
         <v>167</v>
       </c>
@@ -9364,7 +9365,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5">
       <c r="A520" s="2" t="s">
         <v>165</v>
       </c>
@@ -9375,13 +9376,13 @@
         <v>9</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E520" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5">
       <c r="A521" s="2" t="s">
         <v>165</v>
       </c>
@@ -9392,13 +9393,13 @@
         <v>9</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E521" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5">
       <c r="A522" s="2" t="s">
         <v>165</v>
       </c>
@@ -9409,13 +9410,13 @@
         <v>9</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E522" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5">
       <c r="A523" s="2" t="s">
         <v>165</v>
       </c>
@@ -9426,13 +9427,13 @@
         <v>9</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E523" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5">
       <c r="A524" s="2" t="s">
         <v>165</v>
       </c>
@@ -9443,13 +9444,13 @@
         <v>9</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E524" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5">
       <c r="A525" s="2" t="s">
         <v>165</v>
       </c>
@@ -9460,13 +9461,13 @@
         <v>9</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E525" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5">
       <c r="A526" s="2" t="s">
         <v>165</v>
       </c>
@@ -9477,13 +9478,13 @@
         <v>9</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5">
       <c r="A527" s="2" t="s">
         <v>165</v>
       </c>
@@ -9494,13 +9495,13 @@
         <v>9</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E527" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5" hidden="1">
       <c r="A528" s="2" t="s">
         <v>170</v>
       </c>
@@ -9514,7 +9515,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:5" hidden="1">
       <c r="A529" s="2" t="s">
         <v>170</v>
       </c>
@@ -9528,7 +9529,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:5" hidden="1">
       <c r="A530" s="2" t="s">
         <v>170</v>
       </c>
@@ -9542,7 +9543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:5" hidden="1">
       <c r="A531" s="2" t="s">
         <v>170</v>
       </c>
@@ -9556,7 +9557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:5" hidden="1">
       <c r="A532" s="2" t="s">
         <v>170</v>
       </c>
@@ -9570,7 +9571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:5" hidden="1">
       <c r="A533" s="2" t="s">
         <v>170</v>
       </c>
@@ -9581,13 +9582,13 @@
         <v>9</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E533" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:5" hidden="1">
       <c r="A534" s="2" t="s">
         <v>170</v>
       </c>
@@ -9598,13 +9599,13 @@
         <v>9</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E534" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5" hidden="1">
       <c r="A535" s="2" t="s">
         <v>170</v>
       </c>
@@ -9615,13 +9616,13 @@
         <v>9</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E535" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5" hidden="1">
       <c r="A536" s="2" t="s">
         <v>170</v>
       </c>
@@ -9632,13 +9633,13 @@
         <v>9</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:5" hidden="1">
       <c r="A537" s="2" t="s">
         <v>170</v>
       </c>
@@ -9649,13 +9650,13 @@
         <v>9</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:5" hidden="1">
       <c r="A538" s="2" t="s">
         <v>170</v>
       </c>
@@ -9666,13 +9667,13 @@
         <v>9</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:5" hidden="1">
       <c r="A539" s="2" t="s">
         <v>170</v>
       </c>
@@ -9683,13 +9684,13 @@
         <v>9</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E539" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:5" hidden="1">
       <c r="A540" s="2" t="s">
         <v>170</v>
       </c>
@@ -9700,13 +9701,13 @@
         <v>9</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E540" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:5" hidden="1">
       <c r="A541" s="2" t="s">
         <v>170</v>
       </c>
@@ -9717,13 +9718,13 @@
         <v>9</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:5" hidden="1">
       <c r="A542" s="2" t="s">
         <v>170</v>
       </c>
@@ -9734,13 +9735,13 @@
         <v>9</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E542" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:5" hidden="1">
       <c r="A543" s="2" t="s">
         <v>170</v>
       </c>
@@ -9751,13 +9752,13 @@
         <v>9</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E543" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:5" hidden="1">
       <c r="A544" s="2" t="s">
         <v>170</v>
       </c>
@@ -9768,13 +9769,13 @@
         <v>9</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E544" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" hidden="1">
       <c r="A545" s="2" t="s">
         <v>170</v>
       </c>
@@ -9785,13 +9786,13 @@
         <v>9</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" hidden="1">
       <c r="A546" s="2" t="s">
         <v>170</v>
       </c>
@@ -9802,13 +9803,13 @@
         <v>9</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E546" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" hidden="1">
       <c r="A547" s="2" t="s">
         <v>170</v>
       </c>
@@ -9819,13 +9820,13 @@
         <v>9</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E547" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" hidden="1">
       <c r="A548" s="2" t="s">
         <v>170</v>
       </c>
@@ -9836,13 +9837,13 @@
         <v>9</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E548" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" hidden="1">
       <c r="A549" s="2" t="s">
         <v>170</v>
       </c>
@@ -9853,13 +9854,13 @@
         <v>9</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E549" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" hidden="1">
       <c r="A550" s="2" t="s">
         <v>170</v>
       </c>
@@ -9870,13 +9871,13 @@
         <v>9</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E550" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" hidden="1">
       <c r="A551" s="2" t="s">
         <v>170</v>
       </c>
@@ -9887,13 +9888,13 @@
         <v>9</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E551" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" hidden="1">
       <c r="A552" s="2" t="s">
         <v>170</v>
       </c>
@@ -9904,13 +9905,13 @@
         <v>9</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E552" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" hidden="1">
       <c r="A553" s="2" t="s">
         <v>170</v>
       </c>
@@ -9921,13 +9922,13 @@
         <v>9</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E553" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" hidden="1">
       <c r="A554" s="2" t="s">
         <v>170</v>
       </c>
@@ -9938,13 +9939,13 @@
         <v>9</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E554" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" hidden="1">
       <c r="A555" s="2" t="s">
         <v>170</v>
       </c>
@@ -9955,13 +9956,13 @@
         <v>9</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E555" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" hidden="1">
       <c r="A556" s="2" t="s">
         <v>170</v>
       </c>
@@ -9972,13 +9973,13 @@
         <v>9</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E556" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" hidden="1">
       <c r="A557" s="2" t="s">
         <v>170</v>
       </c>
@@ -9989,13 +9990,13 @@
         <v>9</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E557" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:5" hidden="1">
       <c r="A558" s="2" t="s">
         <v>170</v>
       </c>
@@ -10006,13 +10007,13 @@
         <v>9</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E558" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" hidden="1">
       <c r="A559" s="2" t="s">
         <v>170</v>
       </c>
@@ -10023,13 +10024,13 @@
         <v>9</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E559" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" hidden="1">
       <c r="A560" s="2" t="s">
         <v>170</v>
       </c>
@@ -10040,13 +10041,13 @@
         <v>9</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E560" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" hidden="1">
       <c r="A561" s="2" t="s">
         <v>170</v>
       </c>
@@ -10057,13 +10058,13 @@
         <v>9</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E561" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" hidden="1">
       <c r="A562" s="2" t="s">
         <v>170</v>
       </c>
@@ -10074,13 +10075,13 @@
         <v>9</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E562" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" hidden="1">
       <c r="A563" s="2" t="s">
         <v>170</v>
       </c>
@@ -10091,13 +10092,13 @@
         <v>9</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E563" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" hidden="1">
       <c r="A564" s="2" t="s">
         <v>170</v>
       </c>
@@ -10108,13 +10109,13 @@
         <v>9</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E564" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" hidden="1">
       <c r="A565" s="2" t="s">
         <v>170</v>
       </c>
@@ -10125,13 +10126,13 @@
         <v>9</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E565" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" hidden="1">
       <c r="A566" s="2" t="s">
         <v>170</v>
       </c>
@@ -10142,13 +10143,13 @@
         <v>9</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E566" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" hidden="1">
       <c r="A567" s="2" t="s">
         <v>170</v>
       </c>
@@ -10159,13 +10160,13 @@
         <v>9</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E567" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" hidden="1">
       <c r="A568" s="2" t="s">
         <v>170</v>
       </c>
@@ -10176,13 +10177,13 @@
         <v>9</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E568" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" hidden="1">
       <c r="A569" s="2" t="s">
         <v>170</v>
       </c>
@@ -10193,13 +10194,13 @@
         <v>9</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E569" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" hidden="1">
       <c r="A570" s="2" t="s">
         <v>170</v>
       </c>
@@ -10210,13 +10211,13 @@
         <v>9</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E570" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" hidden="1">
       <c r="A571" s="2" t="s">
         <v>170</v>
       </c>
@@ -10227,13 +10228,13 @@
         <v>9</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E571" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" hidden="1">
       <c r="A572" s="2" t="s">
         <v>170</v>
       </c>
@@ -10244,13 +10245,13 @@
         <v>9</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E572" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" hidden="1">
       <c r="A573" s="2" t="s">
         <v>170</v>
       </c>
@@ -10261,13 +10262,13 @@
         <v>9</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E573" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" hidden="1">
       <c r="A574" s="2" t="s">
         <v>170</v>
       </c>
@@ -10278,13 +10279,13 @@
         <v>9</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E574" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" hidden="1">
       <c r="A575" s="2" t="s">
         <v>170</v>
       </c>
@@ -10295,13 +10296,13 @@
         <v>9</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E575" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" hidden="1">
       <c r="A576" s="2" t="s">
         <v>170</v>
       </c>
@@ -10312,13 +10313,13 @@
         <v>9</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E576" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:5" hidden="1">
       <c r="A577" s="2" t="s">
         <v>170</v>
       </c>
@@ -10329,13 +10330,13 @@
         <v>9</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E577" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" hidden="1">
       <c r="A578" s="2" t="s">
         <v>170</v>
       </c>
@@ -10346,13 +10347,13 @@
         <v>9</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E578" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" hidden="1">
       <c r="A579" s="2" t="s">
         <v>170</v>
       </c>
@@ -10363,13 +10364,13 @@
         <v>9</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E579" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" hidden="1">
       <c r="A580" s="2" t="s">
         <v>170</v>
       </c>
@@ -10380,13 +10381,13 @@
         <v>9</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E580" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:5" hidden="1">
       <c r="A581" s="2" t="s">
         <v>170</v>
       </c>
@@ -10403,7 +10404,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" hidden="1">
       <c r="A582" s="2" t="s">
         <v>170</v>
       </c>
@@ -10420,7 +10421,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" hidden="1">
       <c r="A583" s="2" t="s">
         <v>170</v>
       </c>
@@ -10437,7 +10438,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" hidden="1">
       <c r="A584" s="2" t="s">
         <v>170</v>
       </c>
@@ -10454,7 +10455,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" hidden="1">
       <c r="A585" s="2" t="s">
         <v>170</v>
       </c>
@@ -10471,7 +10472,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" hidden="1">
       <c r="A586" s="2" t="s">
         <v>170</v>
       </c>
@@ -10489,19 +10490,24 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E586">
+  <autoFilter ref="A1:E586" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="module"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="100"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0.1,1,10,25,40,100"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"module,linecard,chassis,fabriccard,power,fan,supervisor,monitoring"</formula1>
     </dataValidation>
   </dataValidations>
